--- a/PhoenixCI/Excel_Template/40030.xlsx
+++ b/PhoenixCI/Excel_Template/40030.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandylo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7965" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="保證金(Fut)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -842,32 +842,6 @@
   </si>
   <si>
     <r>
-      <t>JPX
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日幣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>SGX
 (</t>
     </r>
@@ -1455,6 +1429,10 @@
       <t>保證金占契約價值比與國際主要交易所比較表</t>
     </r>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料日期：2018年12月4日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4931,7 +4909,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
@@ -4941,7 +4919,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>41</v>
@@ -4949,7 +4927,7 @@
     </row>
     <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
@@ -4980,14 +4958,14 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
@@ -4997,7 +4975,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>41</v>
@@ -5005,7 +4983,7 @@
     </row>
     <row r="12" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
@@ -5036,7 +5014,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
@@ -5108,7 +5086,7 @@
     <row r="4" spans="2:8" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>52</v>
@@ -5117,7 +5095,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>52</v>
@@ -5177,25 +5155,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="8" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
         <v>65</v>
       </c>
@@ -5203,10 +5180,8 @@
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-    </row>
-    <row r="3" spans="2:8" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>25</v>
       </c>
@@ -5214,73 +5189,59 @@
         <v>48</v>
       </c>
       <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="2:8" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5312,7 +5273,7 @@
     </row>
     <row r="2" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -5335,21 +5296,21 @@
     <row r="4" spans="2:6" s="4" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -5411,7 +5372,7 @@
     </row>
     <row r="2" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -5434,21 +5395,21 @@
     <row r="4" spans="2:6" s="4" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52"/>
       <c r="C4" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -5506,12 +5467,12 @@
   <sheetData>
     <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:6" s="29" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -5523,32 +5484,32 @@
         <v>25</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>95</v>
-      </c>
       <c r="E4" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -5557,7 +5518,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5566,7 +5527,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -5608,7 +5569,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -5633,21 +5594,21 @@
       <c r="A4" s="4"/>
       <c r="B4" s="52"/>
       <c r="C4" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>89</v>
-      </c>
       <c r="E4" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -5693,7 +5654,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="11.625" style="10" customWidth="1"/>
@@ -7083,8 +7044,6 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B49:H49"/>
@@ -7099,8 +7058,6 @@
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B16:H16"/>
@@ -7113,11 +7070,15 @@
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:E59"/>
@@ -9233,8 +9194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9251,7 +9212,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -9276,21 +9237,21 @@
       <c r="A4" s="4"/>
       <c r="B4" s="52"/>
       <c r="C4" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -9641,7 +9602,7 @@
     </row>
     <row r="8" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -9736,7 +9697,7 @@
     </row>
     <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -9834,7 +9795,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
@@ -9890,7 +9851,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
@@ -9985,7 +9946,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
@@ -10041,7 +10002,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
@@ -10087,7 +10048,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
@@ -10097,7 +10058,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>41</v>
@@ -10105,7 +10066,7 @@
     </row>
     <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
@@ -10136,14 +10097,14 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
@@ -10153,7 +10114,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>41</v>
@@ -10161,7 +10122,7 @@
     </row>
     <row r="12" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
@@ -10192,7 +10153,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>

--- a/PhoenixCI/Excel_Template/40030.xlsx
+++ b/PhoenixCI/Excel_Template/40030.xlsx
@@ -1,38 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5C5210-009A-483B-94F7-91094F804EC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="7335" windowHeight="7710" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="保證金(Fut)" sheetId="1" r:id="rId1"/>
     <sheet name="保證金(Opt)" sheetId="4" r:id="rId2"/>
     <sheet name="SPAN參數" sheetId="2" r:id="rId3"/>
-    <sheet name="黃金" sheetId="5" r:id="rId4"/>
-    <sheet name="人民幣" sheetId="7" r:id="rId5"/>
-    <sheet name="TOPIX" sheetId="9" r:id="rId6"/>
+    <sheet name="TX" sheetId="24" r:id="rId4"/>
+    <sheet name="黃金" sheetId="5" r:id="rId5"/>
+    <sheet name="人民幣" sheetId="7" r:id="rId6"/>
+    <sheet name="歐元" sheetId="12" r:id="rId7"/>
+    <sheet name="日圓" sheetId="14" r:id="rId8"/>
+    <sheet name="英鎊" sheetId="19" r:id="rId9"/>
+    <sheet name="澳幣" sheetId="20" r:id="rId10"/>
+    <sheet name="TOPIX" sheetId="9" r:id="rId11"/>
+    <sheet name="Nifty50" sheetId="15" r:id="rId12"/>
+    <sheet name="DJIA" sheetId="16" r:id="rId13"/>
+    <sheet name="S&amp;P500" sheetId="18" r:id="rId14"/>
+    <sheet name="NASDAQ100" sheetId="23" r:id="rId15"/>
+    <sheet name="Brent Crude" sheetId="22" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -268,7 +270,7 @@
   </si>
   <si>
     <t>單位：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>黃金期貨契約結算保證金</t>
@@ -342,7 +344,7 @@
   </si>
   <si>
     <t>結算保證金占契約總值比例</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -369,7 +371,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -448,7 +450,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -474,11 +476,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>資料日期：2011年2月22日</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>資料日期：2013年10月14日</t>
@@ -594,7 +596,7 @@
   </si>
   <si>
     <t>東證期貨契約結算保證金</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -610,12 +612,288 @@
       </rPr>
       <t>東證期貨保證金占契約價值比與國際主要交易所比較表</t>
     </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>現行比例</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始保證金占契約總值比例</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JPX mini TOPIX Futures
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日幣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JPX TOPIX Futures
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日幣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始保證金占契約總值比例</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行歐元兌美元匯率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>期貨保證金占契約價值比與國際主要交易所比較表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XEF
+TAIFEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位：USD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後歐元兌美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>匯率期貨保證金與國際主要交易所保證金比較表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐元兌美元
+匯率期貨契約
+結算保證金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元兌日圓
+匯率期貨契約
+結算保證金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行美元兌日圓匯率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>期貨保證金占契約價值比與國際主要交易所比較表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後美元兌日圓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>匯率期貨保證金與國際主要交易所保證金比較表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XJF
+TAIFEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位：YEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nifty50期貨契約結算保證金</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司Nifty50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>期貨保證金占契約價值比與國際主要交易所比較表</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SGX
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TJF
-TAIFEX
+    <t>原始保證金占契約總值比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道瓊期貨契約結算保證金</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司美國道瓊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>期貨保證金占契約價值比與國際主要交易所比較表</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TAIFEX
+TJF
 (</t>
     </r>
     <r>
@@ -641,8 +919,8 @@
   </si>
   <si>
     <r>
-      <t>TJF
-TAIFEX
+      <t>TAIFEX
+I5F
 (</t>
     </r>
     <r>
@@ -667,20 +945,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>現行比例</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整後</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始保證金占契約總值比例</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>JPX mini TOPIX Futures
+    <r>
+      <t>TAIFEX
+UDF
 (</t>
     </r>
     <r>
@@ -691,7 +958,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>日幣</t>
+      <t>新臺幣元</t>
     </r>
     <r>
       <rPr>
@@ -702,11 +969,12 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>JPX TOPIX Futures
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TAIFEX
+SPF
 (</t>
     </r>
     <r>
@@ -717,7 +985,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>日幣</t>
+      <t>新臺幣元</t>
     </r>
     <r>
       <rPr>
@@ -728,7 +996,443 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標普500期貨契約結算保證金</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司美國標普500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>期貨保證金占契約價值比與國際主要交易所比較表</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CME 
+E-mini Dow ($5) Futures
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CME 
+E-mini S&amp;P 500 Futures
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>XBF
+TAIFEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XBF
+TAIFEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAF
+TAIFEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳幣兌日圓
+匯率期貨契約
+結算保證金</t>
+  </si>
+  <si>
+    <t>本公司現行澳幣兌美元匯率期貨保證金占契約價值比與國際主要交易所比較表</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>本公司調整後澳幣兌美元匯率期貨保證金與國際主要交易所保證金比較表</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>本公司現行英鎊兌美元匯率期貨保證金占契約價值比與國際主要交易所比較表</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>本公司調整後英鎊兌美元匯率期貨保證金與國際主要交易所保證金比較表</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>英鎊兌美元
+匯率期貨契約
+結算保證金</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TAIFEX
+BRF
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新臺幣元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ICE 
+Brent Crude Futures
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料日期：2011年2月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司美國那斯達克100期貨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保證金占契約價值比與國際主要交易所
+比較表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現行比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TAIFEX
+UNF
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新臺幣元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CME 
+E-mini NASDAQ 100 Futures
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國那斯達克100期貨契約結算保證金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結算保證金占契約總值比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始保證金占契約總值比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TAIFEX
+UNF
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新臺幣元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ICE 
+Brent Crude Futures
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>布蘭特原油期貨契約結算保證金</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司布蘭特原油期貨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保證金占契約價值比與國際主要交易所比較表</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SGX
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>摩臺指期貨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TAIFEX
+TXF
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新臺幣元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 臺股期貨契約結算保證金</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本公司臺股期貨期貨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保證金占契約價值比與國際主要交易所比較表</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料日期：2018年12月4日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -739,7 +1443,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;N/A&quot;"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -756,13 +1460,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -804,13 +1501,6 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -946,11 +1636,59 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -987,19 +1725,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1045,11 +1783,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,133 +1853,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1196,26 +1958,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,23 +2072,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1362,23 +2107,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1558,8 +2286,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1574,31 +2302,31 @@
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1630,13 +2358,13 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1649,34 +2377,34 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
       <c r="I9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1708,13 +2436,13 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -1727,31 +2455,31 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1783,41 +2511,41 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="7"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1849,41 +2577,41 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="7"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1915,13 +2643,13 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1934,34 +2662,34 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1993,13 +2721,13 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -2012,31 +2740,31 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
@@ -2068,41 +2796,41 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="7"/>
     </row>
     <row r="44" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39" t="s">
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
     </row>
     <row r="46" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
@@ -2134,41 +2862,41 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
       <c r="I48" s="7"/>
     </row>
     <row r="50" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39" t="s">
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
@@ -2200,13 +2928,13 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -2219,34 +2947,34 @@
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39" t="s">
+      <c r="B57" s="44"/>
+      <c r="C57" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39" t="s">
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
       <c r="I57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B58" s="39"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
@@ -2278,13 +3006,13 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -2297,34 +3025,34 @@
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39" t="s">
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
       <c r="I63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B64" s="39"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
@@ -2356,13 +3084,13 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -2375,34 +3103,34 @@
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39" t="s">
+      <c r="B69" s="44"/>
+      <c r="C69" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39" t="s">
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
       <c r="I69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B70" s="39"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="2" t="s">
         <v>2</v>
       </c>
@@ -2434,13 +3162,13 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
       <c r="I72" s="7"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -2453,34 +3181,34 @@
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="44"/>
+      <c r="C75" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39" t="s">
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
       <c r="I75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B76" s="39"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="2" t="s">
         <v>2</v>
       </c>
@@ -2512,13 +3240,13 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="35"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
       <c r="I78" s="7"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -2531,34 +3259,34 @@
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="39"/>
-      <c r="C81" s="39" t="s">
+      <c r="B81" s="44"/>
+      <c r="C81" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39" t="s">
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
       <c r="I81" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B82" s="39"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="2" t="s">
         <v>2</v>
       </c>
@@ -2590,13 +3318,13 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
       <c r="I84" s="7"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -2609,34 +3337,34 @@
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39" t="s">
+      <c r="B87" s="44"/>
+      <c r="C87" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39" t="s">
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
       <c r="I87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B88" s="39"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="2" t="s">
         <v>2</v>
       </c>
@@ -2668,13 +3396,13 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="35"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
       <c r="I90" s="7"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -2687,34 +3415,34 @@
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39" t="s">
+      <c r="B93" s="44"/>
+      <c r="C93" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39" t="s">
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
       <c r="I93" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B94" s="39"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="2" t="s">
         <v>2</v>
       </c>
@@ -2746,13 +3474,13 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="35"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
       <c r="I96" s="7"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2765,34 +3493,34 @@
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39" t="s">
+      <c r="B99" s="44"/>
+      <c r="C99" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39" t="s">
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
       <c r="I99" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B100" s="39"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="2" t="s">
         <v>2</v>
       </c>
@@ -2824,13 +3552,13 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="35"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
       <c r="I102" s="7"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2843,34 +3571,34 @@
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39" t="s">
+      <c r="B105" s="44"/>
+      <c r="C105" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39" t="s">
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
       <c r="I105" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B106" s="39"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="2" t="s">
         <v>2</v>
       </c>
@@ -2902,13 +3630,13 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="35"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
       <c r="I108" s="7"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -2921,34 +3649,34 @@
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="37" t="s">
+      <c r="B110" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39" t="s">
+      <c r="B111" s="44"/>
+      <c r="C111" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39" t="s">
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
       <c r="I111" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B112" s="39"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="2" t="s">
         <v>2</v>
       </c>
@@ -2980,13 +3708,13 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="35"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
       <c r="I114" s="7"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -2999,34 +3727,34 @@
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39" t="s">
+      <c r="B117" s="44"/>
+      <c r="C117" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39" t="s">
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
       <c r="I117" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B118" s="39"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="2" t="s">
         <v>2</v>
       </c>
@@ -3058,13 +3786,13 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="35"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
       <c r="I120" s="7"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -3077,34 +3805,34 @@
       <c r="H121" s="4"/>
     </row>
     <row r="122" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39" t="s">
+      <c r="B123" s="44"/>
+      <c r="C123" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39" t="s">
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
       <c r="I123" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B124" s="39"/>
+      <c r="B124" s="44"/>
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
@@ -3136,13 +3864,13 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
       <c r="I126" s="7"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -3155,34 +3883,34 @@
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39" t="s">
+      <c r="B129" s="44"/>
+      <c r="C129" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="39" t="s">
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
       <c r="I129" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B130" s="39"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
@@ -3215,13 +3943,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
@@ -3233,31 +3961,31 @@
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39" t="s">
+      <c r="B135" s="44"/>
+      <c r="C135" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="39" t="s">
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
     </row>
     <row r="136" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B136" s="39"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3290,13 +4018,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
@@ -3308,31 +4036,31 @@
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39" t="s">
+      <c r="B141" s="44"/>
+      <c r="C141" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-      <c r="F141" s="39" t="s">
+      <c r="D141" s="44"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="44"/>
     </row>
     <row r="142" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B142" s="39"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="2" t="s">
         <v>2</v>
       </c>
@@ -3365,13 +4093,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
@@ -3383,31 +4111,31 @@
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="37" t="s">
+      <c r="B146" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C146" s="38"/>
-      <c r="D146" s="38"/>
-      <c r="E146" s="38"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="38"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="39"/>
-      <c r="C147" s="39" t="s">
+      <c r="B147" s="44"/>
+      <c r="C147" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39" t="s">
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
     </row>
     <row r="148" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B148" s="39"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="2" t="s">
         <v>2</v>
       </c>
@@ -3440,13 +4168,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
@@ -3458,31 +4186,31 @@
       <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="37" t="s">
+      <c r="B152" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="38"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="38"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="39"/>
-      <c r="C153" s="39" t="s">
+      <c r="B153" s="44"/>
+      <c r="C153" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-      <c r="F153" s="39" t="s">
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G153" s="39"/>
-      <c r="H153" s="39"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="44"/>
     </row>
     <row r="154" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B154" s="39"/>
+      <c r="B154" s="44"/>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
@@ -3515,13 +4243,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="41"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
@@ -3533,31 +4261,31 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="37" t="s">
+      <c r="B158" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="38"/>
-      <c r="D158" s="38"/>
-      <c r="E158" s="38"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="38"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="39"/>
-      <c r="C159" s="39" t="s">
+      <c r="B159" s="44"/>
+      <c r="C159" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
-      <c r="F159" s="39" t="s">
+      <c r="D159" s="44"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G159" s="39"/>
-      <c r="H159" s="39"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
     </row>
     <row r="160" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B160" s="39"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="2" t="s">
         <v>2</v>
       </c>
@@ -3590,13 +4318,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="36"/>
-      <c r="E162" s="36"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="41"/>
+      <c r="F162" s="41"/>
+      <c r="G162" s="41"/>
+      <c r="H162" s="41"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
@@ -3608,31 +4336,31 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C164" s="38"/>
-      <c r="D164" s="38"/>
-      <c r="E164" s="38"/>
-      <c r="F164" s="38"/>
-      <c r="G164" s="38"/>
-      <c r="H164" s="38"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="39"/>
-      <c r="C165" s="39" t="s">
+      <c r="B165" s="44"/>
+      <c r="C165" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-      <c r="F165" s="39" t="s">
+      <c r="D165" s="44"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G165" s="39"/>
-      <c r="H165" s="39"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="44"/>
     </row>
     <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B166" s="39"/>
+      <c r="B166" s="44"/>
       <c r="C166" s="2" t="s">
         <v>2</v>
       </c>
@@ -3665,13 +4393,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="41"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
@@ -3683,31 +4411,31 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="37" t="s">
+      <c r="B170" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="38"/>
-      <c r="D170" s="38"/>
-      <c r="E170" s="38"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="38"/>
+      <c r="C170" s="43"/>
+      <c r="D170" s="43"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="43"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="39"/>
-      <c r="C171" s="39" t="s">
+      <c r="B171" s="44"/>
+      <c r="C171" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39" t="s">
+      <c r="D171" s="44"/>
+      <c r="E171" s="44"/>
+      <c r="F171" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G171" s="39"/>
-      <c r="H171" s="39"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="44"/>
     </row>
     <row r="172" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B172" s="39"/>
+      <c r="B172" s="44"/>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
@@ -3740,13 +4468,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="41"/>
+      <c r="F174" s="41"/>
+      <c r="G174" s="41"/>
+      <c r="H174" s="41"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
@@ -3758,31 +4486,31 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B176" s="37" t="s">
+      <c r="B176" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="38"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="38"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="43"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="39"/>
-      <c r="C177" s="39" t="s">
+      <c r="B177" s="44"/>
+      <c r="C177" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
-      <c r="F177" s="39" t="s">
+      <c r="D177" s="44"/>
+      <c r="E177" s="44"/>
+      <c r="F177" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G177" s="39"/>
-      <c r="H177" s="39"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="44"/>
     </row>
     <row r="178" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B178" s="39"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="2" t="s">
         <v>2</v>
       </c>
@@ -3815,13 +4543,13 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="41"/>
+      <c r="G180" s="41"/>
+      <c r="H180" s="41"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
@@ -3833,31 +4561,31 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="37" t="s">
+      <c r="B182" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="38"/>
-      <c r="D182" s="38"/>
-      <c r="E182" s="38"/>
-      <c r="F182" s="38"/>
-      <c r="G182" s="38"/>
-      <c r="H182" s="38"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="39"/>
-      <c r="C183" s="39" t="s">
+      <c r="B183" s="44"/>
+      <c r="C183" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
-      <c r="F183" s="39" t="s">
+      <c r="D183" s="44"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G183" s="39"/>
-      <c r="H183" s="39"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="44"/>
     </row>
     <row r="184" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B184" s="39"/>
+      <c r="B184" s="44"/>
       <c r="C184" s="2" t="s">
         <v>2</v>
       </c>
@@ -3890,13 +4618,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="B186" s="35"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="41"/>
+      <c r="E186" s="41"/>
+      <c r="F186" s="41"/>
+      <c r="G186" s="41"/>
+      <c r="H186" s="41"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
@@ -3908,31 +4636,31 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C188" s="38"/>
-      <c r="D188" s="38"/>
-      <c r="E188" s="38"/>
-      <c r="F188" s="38"/>
-      <c r="G188" s="38"/>
-      <c r="H188" s="38"/>
+      <c r="C188" s="43"/>
+      <c r="D188" s="43"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="43"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B189" s="39"/>
-      <c r="C189" s="39" t="s">
+      <c r="B189" s="44"/>
+      <c r="C189" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D189" s="39"/>
-      <c r="E189" s="39"/>
-      <c r="F189" s="39" t="s">
+      <c r="D189" s="44"/>
+      <c r="E189" s="44"/>
+      <c r="F189" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G189" s="39"/>
-      <c r="H189" s="39"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="44"/>
     </row>
     <row r="190" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="B190" s="39"/>
+      <c r="B190" s="44"/>
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
@@ -3965,13 +4693,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="35"/>
-      <c r="C192" s="36"/>
-      <c r="D192" s="36"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="41"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="41"/>
+      <c r="G192" s="41"/>
+      <c r="H192" s="41"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
@@ -3993,6 +4721,13 @@
     <mergeCell ref="F123:H123"/>
     <mergeCell ref="B126:H126"/>
     <mergeCell ref="B128:H128"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:B112"/>
     <mergeCell ref="C111:E111"/>
     <mergeCell ref="F111:H111"/>
     <mergeCell ref="B114:H114"/>
@@ -4000,16 +4735,7 @@
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="C117:E117"/>
     <mergeCell ref="F117:H117"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="F81:H81"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B102:H102"/>
     <mergeCell ref="B104:H104"/>
@@ -4020,16 +4746,16 @@
     <mergeCell ref="F93:H93"/>
     <mergeCell ref="B96:H96"/>
     <mergeCell ref="B98:H98"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="C57:E57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B51:B52"/>
@@ -4040,16 +4766,10 @@
     <mergeCell ref="B60:H60"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="F63:H63"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B20:H20"/>
@@ -4060,14 +4780,19 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B6:H6"/>
@@ -4078,16 +4803,15 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:H141"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B132:H132"/>
     <mergeCell ref="B134:H134"/>
@@ -4098,56 +4822,826 @@
     <mergeCell ref="B78:H78"/>
     <mergeCell ref="B80:H80"/>
     <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="F153:H153"/>
     <mergeCell ref="B144:H144"/>
     <mergeCell ref="B146:H146"/>
     <mergeCell ref="B147:B148"/>
     <mergeCell ref="C147:E147"/>
     <mergeCell ref="F147:H147"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="F165:H165"/>
     <mergeCell ref="B156:H156"/>
     <mergeCell ref="B158:H158"/>
     <mergeCell ref="B159:B160"/>
     <mergeCell ref="C159:E159"/>
     <mergeCell ref="F159:H159"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="B174:H174"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="F177:H177"/>
     <mergeCell ref="B168:H168"/>
     <mergeCell ref="B170:H170"/>
     <mergeCell ref="B171:B172"/>
     <mergeCell ref="C171:E171"/>
     <mergeCell ref="F171:H171"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="B180:H180"/>
-    <mergeCell ref="B182:H182"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="B174:H174"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="F177:H177"/>
     <mergeCell ref="B192:H192"/>
     <mergeCell ref="B186:H186"/>
     <mergeCell ref="B188:H188"/>
     <mergeCell ref="B189:B190"/>
     <mergeCell ref="C189:E189"/>
     <mergeCell ref="F189:H189"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="B182:H182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="F183:H183"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D6" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="27">
+        <f>C5/C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <f>D5/D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D13" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="27">
+        <f>C12/C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <f>D12/D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="H1" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+    </row>
+    <row r="3" spans="2:8" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="2:8" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" s="4" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" s="4" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="29" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="2:6" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="64"/>
+      <c r="C4" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="35" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:6" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4156,9 +5650,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="11.625" style="10" customWidth="1"/>
@@ -4172,31 +5668,31 @@
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
@@ -4239,41 +5735,41 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="20" t="s">
         <v>19</v>
       </c>
@@ -4316,41 +5812,41 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="20" t="s">
         <v>19</v>
       </c>
@@ -4393,41 +5889,41 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="20" t="s">
         <v>19</v>
       </c>
@@ -4470,41 +5966,41 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B32" s="42"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="20" t="s">
         <v>19</v>
       </c>
@@ -4547,41 +6043,41 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="13"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="43" t="s">
+      <c r="B38" s="47"/>
+      <c r="C38" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="20" t="s">
         <v>19</v>
       </c>
@@ -4624,41 +6120,41 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
       <c r="I42" s="13"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="43" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="20" t="s">
         <v>19</v>
       </c>
@@ -4701,41 +6197,41 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
       <c r="I49" s="13"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="43" t="s">
+      <c r="B52" s="47"/>
+      <c r="C52" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43" t="s">
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
@@ -4778,40 +6274,40 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="43" t="s">
+      <c r="B59" s="47"/>
+      <c r="C59" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43" t="s">
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
     </row>
     <row r="60" spans="2:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="20" t="s">
         <v>19</v>
       </c>
@@ -4854,40 +6350,40 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="35"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="42"/>
-      <c r="C66" s="43" t="s">
+      <c r="B66" s="47"/>
+      <c r="C66" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43" t="s">
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="20" t="s">
         <v>19</v>
       </c>
@@ -4930,40 +6426,40 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="35"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="42"/>
-      <c r="C73" s="43" t="s">
+      <c r="B73" s="47"/>
+      <c r="C73" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43" t="s">
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B74" s="42"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="20" t="s">
         <v>19</v>
       </c>
@@ -5006,40 +6502,40 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="35"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="42"/>
-      <c r="C80" s="43" t="s">
+      <c r="B80" s="47"/>
+      <c r="C80" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43" t="s">
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
     </row>
     <row r="81" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B81" s="42"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="20" t="s">
         <v>19</v>
       </c>
@@ -5082,40 +6578,40 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="35"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="42"/>
-      <c r="C87" s="43" t="s">
+      <c r="B87" s="47"/>
+      <c r="C87" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43" t="s">
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
     </row>
     <row r="88" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="20" t="s">
         <v>19</v>
       </c>
@@ -5158,40 +6654,40 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="42"/>
-      <c r="C94" s="43" t="s">
+      <c r="B94" s="47"/>
+      <c r="C94" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43" t="s">
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
     </row>
     <row r="95" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B95" s="42"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="20" t="s">
         <v>19</v>
       </c>
@@ -5234,40 +6730,40 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="42"/>
-      <c r="C101" s="43" t="s">
+      <c r="B101" s="47"/>
+      <c r="C101" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43" t="s">
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
     </row>
     <row r="102" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B102" s="42"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="20" t="s">
         <v>19</v>
       </c>
@@ -5310,40 +6806,40 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="42"/>
-      <c r="C108" s="43" t="s">
+      <c r="B108" s="47"/>
+      <c r="C108" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43" t="s">
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
     </row>
     <row r="109" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B109" s="42"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="20" t="s">
         <v>19</v>
       </c>
@@ -5386,40 +6882,40 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="40"/>
-      <c r="F112" s="40"/>
-      <c r="G112" s="40"/>
-      <c r="H112" s="40"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="42"/>
-      <c r="C115" s="43" t="s">
+      <c r="B115" s="47"/>
+      <c r="C115" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43" t="s">
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
     </row>
     <row r="116" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B116" s="42"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="20" t="s">
         <v>19</v>
       </c>
@@ -5462,40 +6958,40 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="40"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="40"/>
-      <c r="H119" s="40"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="41"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="42"/>
-      <c r="C122" s="43" t="s">
+      <c r="B122" s="47"/>
+      <c r="C122" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43" t="s">
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
     </row>
     <row r="123" spans="2:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="B123" s="42"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="20" t="s">
         <v>19</v>
       </c>
@@ -5538,16 +7034,18 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40"/>
-      <c r="H126" s="40"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:B32"/>
@@ -5558,12 +7056,8 @@
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B16:H16"/>
@@ -5574,14 +7068,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B58:H58"/>
@@ -5592,46 +7087,47 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
     <mergeCell ref="B70:H70"/>
     <mergeCell ref="B72:H72"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:E73"/>
     <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:H80"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:E87"/>
     <mergeCell ref="F87:H87"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="F94:H94"/>
     <mergeCell ref="B98:H98"/>
     <mergeCell ref="B100:H100"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:E101"/>
     <mergeCell ref="F101:H101"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="F108:H108"/>
     <mergeCell ref="B112:H112"/>
     <mergeCell ref="B114:H114"/>
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="C115:E115"/>
     <mergeCell ref="F115:H115"/>
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="F108:H108"/>
     <mergeCell ref="B126:H126"/>
     <mergeCell ref="B119:H119"/>
     <mergeCell ref="B121:H121"/>
@@ -5639,7 +7135,7 @@
     <mergeCell ref="C122:E122"/>
     <mergeCell ref="F122:H122"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5650,8 +7146,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5695,13 +7191,13 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -5735,13 +7231,13 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -5771,13 +7267,13 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
@@ -5804,13 +7300,13 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
@@ -5844,13 +7340,13 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -5877,13 +7373,13 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
@@ -5910,13 +7406,13 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
@@ -5951,11 +7447,11 @@
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
@@ -5982,13 +7478,13 @@
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="38" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
@@ -6015,13 +7511,13 @@
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
@@ -6055,13 +7551,13 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="46" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -6091,13 +7587,13 @@
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
     </row>
     <row r="50" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
@@ -6124,13 +7620,13 @@
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
@@ -6164,13 +7660,13 @@
       <c r="F55" s="9"/>
     </row>
     <row r="56" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
     </row>
     <row r="58" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
@@ -6197,13 +7693,13 @@
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="62" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
@@ -6230,13 +7726,13 @@
       <c r="F63" s="9"/>
     </row>
     <row r="64" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
@@ -6271,11 +7767,11 @@
     </row>
     <row r="68" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
     </row>
     <row r="70" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
@@ -6302,13 +7798,13 @@
       <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
     </row>
     <row r="74" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
@@ -6335,13 +7831,13 @@
       <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
@@ -6375,13 +7871,13 @@
       <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
     </row>
     <row r="82" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
@@ -6411,13 +7907,13 @@
       <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
@@ -6444,13 +7940,13 @@
       <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
@@ -6484,13 +7980,13 @@
       <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
     </row>
     <row r="94" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
@@ -6517,13 +8013,13 @@
       <c r="F95" s="9"/>
     </row>
     <row r="96" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
     </row>
     <row r="98" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
@@ -6550,13 +8046,13 @@
       <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="13"/>
@@ -6591,11 +8087,11 @@
     </row>
     <row r="104" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
     </row>
     <row r="106" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
@@ -6622,13 +8118,13 @@
       <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
     </row>
     <row r="110" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B110" s="11" t="s">
@@ -6655,13 +8151,13 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B113" s="13"/>
@@ -6695,13 +8191,13 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
     </row>
     <row r="118" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
@@ -6731,13 +8227,13 @@
       <c r="F119" s="9"/>
     </row>
     <row r="120" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
     </row>
     <row r="122" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
@@ -6764,13 +8260,13 @@
       <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
@@ -6804,13 +8300,13 @@
       <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="45"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
     </row>
     <row r="130" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
@@ -6837,13 +8333,13 @@
       <c r="F131" s="9"/>
     </row>
     <row r="132" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="45"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="45"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
     </row>
     <row r="134" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B134" s="11" t="s">
@@ -6870,13 +8366,13 @@
       <c r="F135" s="9"/>
     </row>
     <row r="136" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="45"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="50"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" s="13"/>
@@ -6911,11 +8407,11 @@
     </row>
     <row r="140" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
-      <c r="B140" s="44"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
+      <c r="B140" s="49"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49"/>
     </row>
     <row r="142" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
@@ -6942,13 +8438,13 @@
       <c r="F143" s="9"/>
     </row>
     <row r="144" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="45" t="s">
+      <c r="B144" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="45"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="45"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
     </row>
     <row r="146" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B146" s="11" t="s">
@@ -6975,13 +8471,13 @@
       <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="45" t="s">
+      <c r="B148" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="13"/>
@@ -7015,13 +8511,13 @@
       <c r="F151" s="9"/>
     </row>
     <row r="152" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B152" s="45" t="s">
+      <c r="B152" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50"/>
     </row>
     <row r="154" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
@@ -7051,13 +8547,13 @@
       <c r="F155" s="9"/>
     </row>
     <row r="156" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B156" s="45" t="s">
+      <c r="B156" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="45"/>
-      <c r="F156" s="45"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
     </row>
     <row r="158" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B158" s="11" t="s">
@@ -7084,13 +8580,13 @@
       <c r="F159" s="9"/>
     </row>
     <row r="160" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="45" t="s">
+      <c r="B160" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="45"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="45"/>
-      <c r="F160" s="45"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="13"/>
@@ -7124,13 +8620,13 @@
       <c r="F163" s="9"/>
     </row>
     <row r="164" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="45" t="s">
+      <c r="B164" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="45"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="45"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
     </row>
     <row r="166" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B166" s="11" t="s">
@@ -7157,13 +8653,13 @@
       <c r="F167" s="9"/>
     </row>
     <row r="168" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B168" s="45" t="s">
+      <c r="B168" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="45"/>
-      <c r="D168" s="45"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="45"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
     </row>
     <row r="170" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B170" s="11" t="s">
@@ -7190,13 +8686,13 @@
       <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="45" t="s">
+      <c r="B172" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C172" s="45"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="45"/>
-      <c r="F172" s="45"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
@@ -7231,11 +8727,11 @@
     </row>
     <row r="176" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A176" s="16"/>
-      <c r="B176" s="44"/>
-      <c r="C176" s="44"/>
-      <c r="D176" s="44"/>
-      <c r="E176" s="44"/>
-      <c r="F176" s="44"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="49"/>
+      <c r="D176" s="49"/>
+      <c r="E176" s="49"/>
+      <c r="F176" s="49"/>
     </row>
     <row r="178" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B178" s="11" t="s">
@@ -7262,13 +8758,13 @@
       <c r="F179" s="9"/>
     </row>
     <row r="180" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B180" s="45" t="s">
+      <c r="B180" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C180" s="45"/>
-      <c r="D180" s="45"/>
-      <c r="E180" s="45"/>
-      <c r="F180" s="45"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
     </row>
     <row r="182" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B182" s="11" t="s">
@@ -7295,13 +8791,13 @@
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B184" s="45" t="s">
+      <c r="B184" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="45"/>
-      <c r="D184" s="45"/>
-      <c r="E184" s="45"/>
-      <c r="F184" s="45"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B185" s="13"/>
@@ -7335,13 +8831,13 @@
       <c r="F187" s="9"/>
     </row>
     <row r="188" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="45" t="s">
+      <c r="B188" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C188" s="45"/>
-      <c r="D188" s="45"/>
-      <c r="E188" s="45"/>
-      <c r="F188" s="45"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
     </row>
     <row r="190" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
@@ -7371,13 +8867,13 @@
       <c r="F191" s="9"/>
     </row>
     <row r="192" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="45" t="s">
+      <c r="B192" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C192" s="45"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="45"/>
-      <c r="F192" s="45"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
     </row>
     <row r="194" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B194" s="11" t="s">
@@ -7404,13 +8900,13 @@
       <c r="F195" s="9"/>
     </row>
     <row r="196" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="45" t="s">
+      <c r="B196" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C196" s="45"/>
-      <c r="D196" s="45"/>
-      <c r="E196" s="45"/>
-      <c r="F196" s="45"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="50"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="13"/>
@@ -7444,13 +8940,13 @@
       <c r="F199" s="9"/>
     </row>
     <row r="200" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B200" s="45" t="s">
+      <c r="B200" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C200" s="45"/>
-      <c r="D200" s="45"/>
-      <c r="E200" s="45"/>
-      <c r="F200" s="45"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="50"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="50"/>
     </row>
     <row r="202" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B202" s="11" t="s">
@@ -7477,13 +8973,13 @@
       <c r="F203" s="9"/>
     </row>
     <row r="204" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="45" t="s">
+      <c r="B204" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C204" s="45"/>
-      <c r="D204" s="45"/>
-      <c r="E204" s="45"/>
-      <c r="F204" s="45"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="50"/>
     </row>
     <row r="206" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B206" s="11" t="s">
@@ -7510,13 +9006,13 @@
       <c r="F207" s="9"/>
     </row>
     <row r="208" spans="2:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B208" s="45" t="s">
+      <c r="B208" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C208" s="45"/>
-      <c r="D208" s="45"/>
-      <c r="E208" s="45"/>
-      <c r="F208" s="45"/>
+      <c r="C208" s="50"/>
+      <c r="D208" s="50"/>
+      <c r="E208" s="50"/>
+      <c r="F208" s="50"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B209" s="13"/>
@@ -7551,11 +9047,11 @@
     </row>
     <row r="212" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A212" s="16"/>
-      <c r="B212" s="44"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="44"/>
-      <c r="E212" s="44"/>
-      <c r="F212" s="44"/>
+      <c r="B212" s="49"/>
+      <c r="C212" s="49"/>
+      <c r="D212" s="49"/>
+      <c r="E212" s="49"/>
+      <c r="F212" s="49"/>
     </row>
     <row r="214" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B214" s="11" t="s">
@@ -7582,13 +9078,13 @@
       <c r="F215" s="9"/>
     </row>
     <row r="216" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B216" s="45" t="s">
+      <c r="B216" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C216" s="45"/>
-      <c r="D216" s="45"/>
-      <c r="E216" s="45"/>
-      <c r="F216" s="45"/>
+      <c r="C216" s="50"/>
+      <c r="D216" s="50"/>
+      <c r="E216" s="50"/>
+      <c r="F216" s="50"/>
     </row>
     <row r="218" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B218" s="11" t="s">
@@ -7615,13 +9111,13 @@
       <c r="F219" s="9"/>
     </row>
     <row r="220" spans="1:6" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B220" s="45" t="s">
+      <c r="B220" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C220" s="45"/>
-      <c r="D220" s="45"/>
-      <c r="E220" s="45"/>
-      <c r="F220" s="45"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="50"/>
+      <c r="E220" s="50"/>
+      <c r="F220" s="50"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B221" s="13"/>
@@ -7642,23 +9138,19 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B40:F40"/>
     <mergeCell ref="B112:F112"/>
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B40:F40"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B156:F156"/>
     <mergeCell ref="B160:F160"/>
     <mergeCell ref="B164:F164"/>
     <mergeCell ref="B168:F168"/>
@@ -7669,12 +9161,16 @@
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B132:F132"/>
     <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B104:F104"/>
     <mergeCell ref="B136:F136"/>
     <mergeCell ref="B140:F140"/>
     <mergeCell ref="B144:F144"/>
     <mergeCell ref="B148:F148"/>
     <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B156:F156"/>
     <mergeCell ref="B172:F172"/>
     <mergeCell ref="B200:F200"/>
     <mergeCell ref="B204:F204"/>
@@ -7696,10 +9192,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:IV6"/>
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="6" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="37" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7707,20 +9301,20 @@
     <col min="2" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="2:7" s="29" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="2:7" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
@@ -7787,15 +9381,25 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="7" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+    </row>
     <row r="9" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
@@ -7862,26 +9466,36 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="14" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B9:G9"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7902,14 +9516,14 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
@@ -7986,15 +9600,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+    </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
@@ -8071,10 +9695,171 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D6" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="27">
+        <f>C5/C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <f>D5/D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D13" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="27">
+        <f>C12/C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <f>D12/D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8082,170 +9867,304 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="H1" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="2:8" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="2:8" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
       <c r="C4" s="33" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="27" t="e">
-        <f t="shared" ref="C7:H7" si="0">C5/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D6" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="27">
+        <f>C5/C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
+        <f>D5/D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="27" t="e">
-        <f>ROUNDUP(C5*1.35,-3)/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="28" t="e">
+        <v>67</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D13" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="27">
+        <f>C12/C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <f>D12/D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="29" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D6" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="27">
+        <f>C5/C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
         <f>D5/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="28" t="e">
-        <f>E6/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="27" t="e">
-        <f>ROUNDUP(F5*1.35,-3)/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="28" t="e">
-        <f>G6/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="28" t="e">
-        <f>H6/H7</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26">
+        <v>611630</v>
+      </c>
+      <c r="D13" s="24">
+        <v>611630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="27">
+        <f>C12/C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <f>D12/D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:E3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>